--- a/Avisos_Facebook.xlsx
+++ b/Avisos_Facebook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">¡No dejes que el transporte publico se vuelva un problema! En Ciudad Moto tenemos la solución para vos 🫵🥳
 Créditos personales en el día, rápido y fácil ¡No esperes más! estás a un paso de cumplir tu sueño 🏍💥
@@ -20,7 +20,10 @@
 Veni y disfruta de cada kilometro junto a Ciudad Moto</t>
   </si>
   <si>
-    <t xml:space="preserve">¡Estás a un paso de obtener tu 0KM!
+    <t>Cantidad de avisos: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video. ¡Estás a un paso de obtener tu 0KM!
 No pierdas esta oportunidad, SOLO con tu DNI en Ciudad Moto 💛
 Full name
 Phone number
@@ -475,7 +478,11 @@
       </c>
     </row>
     <row r="3" ht="400" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
